--- a/experimentResults/preliminary_experiment_PLAIN_2.xlsx
+++ b/experimentResults/preliminary_experiment_PLAIN_2.xlsx
@@ -8,30 +8,79 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofnottm-my.sharepoint.com/personal/psxsc27_nottingham_ac_uk/Documents/DIA/cw/experimentResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_1B0FC304FE797971BC6102DC18518DFFA12CB312" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4CEEE79-B61A-3C43-9B12-836D70F4896E}"/>
+  <xr:revisionPtr revIDLastSave="327" documentId="11_1B0FC304FE797971BC6102DC18518DFFA12CB312" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ADE63F7-47EC-2A4A-85B9-5A522A2879BE}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$I$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$I$2:$I$101</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$J$2:$J$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$K$2:$K$101</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$L$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$L$2:$L$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$J$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$J$2:$J$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$K$2:$K$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$L$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$L$2:$L$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$I$2:$I$101</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$I$2:$I$101</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$J$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$J$2:$J$101</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$K$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$K$2:$K$101</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$L$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$L$2:$L$101</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$J$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$J$2:$J$101</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$K$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$K$2:$K$101</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$L$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$L$2:$L$101</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$I$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$I$2:$I$101</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet2!$C$16:$F$16,Sheet2!$D$17:$F$17,Sheet2!$E$18:$F$18,Sheet2!$F$19,Sheet2!$B$15:$F$15</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Sheet2!$B$15:$F$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Sheet2!$B$20:$F$20</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Sheet2!$C$16:$F$16</definedName>
+    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Sheet2!$D$17:$F$17</definedName>
+    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Sheet2!$E$18:$F$18</definedName>
+    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Sheet2!$F$19</definedName>
+    <definedName name="solver_lhs7" localSheetId="2" hidden="1">Sheet2!$G$15:$G$19</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">7</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet2!$H$25</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel5" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel6" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel7" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Sheet2!$B$22:$F$22</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs4" localSheetId="2" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs5" localSheetId="2" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs6" localSheetId="2" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs7" localSheetId="2" hidden="1">Sheet2!$I$15:$I$19</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="119">
   <si>
     <t>num</t>
   </si>
@@ -391,12 +440,33 @@
   <si>
     <t>99</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,13 +474,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -425,8 +519,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,6 +2155,1619 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumtotal100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>283.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>308.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>311.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>313.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>314.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>309.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>304.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>303.21428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>305.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>306.58823529411762</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>306.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>303.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>302.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>304.47619047619048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>302.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>301.39130434782606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>300.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>300.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>298.92592592592592</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>298.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>298.9655172413793</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>298.46666666666664</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>298.29032258064518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>299.28125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>299.42424242424244</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>298.97058823529414</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>299.37142857142857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>300.19444444444446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>299.48648648648651</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>298.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>297.89743589743591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>298.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>299.8780487804878</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>299.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>298.76744186046511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>298.47727272727275</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>298.35555555555555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>297.78723404255317</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>297.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>297.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>298.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>297.47058823529414</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>296.82692307692309</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296.79245283018867</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>296.46296296296299</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>296.69090909090909</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>297.08928571428572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>297.4736842105263</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>297.86206896551727</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>297.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>298.08196721311475</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>298.72580645161293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>298.1904761904762</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>298.46875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>299.01538461538462</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>299.469696969697</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>299.9850746268657</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>300.11764705882354</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>299.79710144927537</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>299.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>300.19718309859155</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>299.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>299.97260273972603</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>299.97297297297297</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>300.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>300.46052631578948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>300.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>299.97435897435895</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>299.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>299.80246913580248</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>299.80487804878049</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>299.73493975903614</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>300.08333333333331</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>300.12941176470588</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>300.61627906976742</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>300.18390804597703</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>299.66292134831463</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>299.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>299.8478260869565</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>299.63440860215053</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>299.55319148936172</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>299.09473684210525</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>299.45833333333331</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>299.38144329896909</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>299.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>300.06060606060606</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>300.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC46-B246-B19B-6FCE5A423592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumtotal90</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>282.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>303.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>310.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>306.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>313.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>313.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>308.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>305.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>303.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>302.21428571428572</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>305.58823529411762</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>305.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>302.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>303.47619047619048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>301.54545454545456</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300.39130434782606</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>299.72000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>299.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>297.92592592592592</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>297.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>297.9655172413793</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>297.46666666666664</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>297.29032258064518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>298.28125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>298.42424242424244</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>297.97058823529414</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>298.37142857142857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>299.19444444444446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>298.48648648648651</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>297.68421052631578</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>296.89743589743591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>297.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>298.8780487804878</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>298.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>297.76744186046511</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>297.47727272727275</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>297.35555555555555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>296.78723404255317</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>296.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>296.48979591836735</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>297.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>296.47058823529414</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>295.82692307692309</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>295.79245283018867</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>295.46296296296299</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>295.69090909090909</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>296.08928571428572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>296.4736842105263</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>296.86206896551727</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>296.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>297.08196721311475</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>297.72580645161293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>297.1904761904762</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>297.46875</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>298.01538461538462</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>298.469696969697</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>298.9850746268657</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>299.11764705882354</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>298.79710144927537</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>298.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>299.19718309859155</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>298.75</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>298.97260273972603</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>298.97297297297297</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>299.13333333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>299.46052631578948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>299.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>298.97435897435895</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>298.72500000000002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>298.80246913580248</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>298.80487804878049</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>298.73493975903614</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>299.08333333333331</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>299.12941176470588</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>299.61627906976742</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>299.18390804597703</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>298.66292134831463</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>298.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>298.8478260869565</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>298.63440860215053</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>298.55319148936172</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>298.09473684210525</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>298.45833333333331</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>298.38144329896909</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>298.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>299.06060606060606</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>299.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC46-B246-B19B-6FCE5A423592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumtotal75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$K$2:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>273.83333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>278.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>272.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>268.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>264.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260.69230769230768</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260.07142857142856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>260.53333333333336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>262.1875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>259.94117647058823</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>257.15789473684208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>254.59090909090909</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>253.43478260869566</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>254.20833333333334</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>253.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252.5185185185185</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>252.82758620689654</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>253.06666666666666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>252.54838709677421</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>253.9375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>254.57575757575756</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>254.52941176470588</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>255.17142857142858</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>256.44444444444446</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>256.02702702702703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>255.15789473684211</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>254.56410256410257</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>255.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>255.29268292682926</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>255.26190476190476</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>255.02325581395348</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>254.68181818181819</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>254.55555555555554</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>254.30434782608697</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>254.08510638297872</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>253.41666666666666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>253.22448979591837</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>252.78</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252.50980392156862</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>251.80769230769232</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>251.49056603773585</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>251.2037037037037</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>251.07272727272726</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>250.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>250.63157894736841</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>250.98275862068965</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>251.45762711864407</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>251.18333333333334</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>251.27868852459017</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>252.11290322580646</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>251.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>251.65625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>252.49230769230769</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>253.22727272727272</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>253.8955223880597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>254.01470588235293</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>253.60869565217391</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>253.4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>253.18309859154928</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>253.01388888888889</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>253.54794520547946</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>253.13513513513513</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>253.26666666666668</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>253.34210526315789</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>253.58441558441558</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>253.14102564102564</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>253.49367088607596</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>253.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>253.64197530864197</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>253.73170731707316</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>253.89156626506025</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>254.46428571428572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>254.37647058823529</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>254.15116279069767</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>253.94252873563218</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>253.47727272727272</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>253.34831460674158</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>253.72222222222223</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>253.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>253.7391304347826</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>253.72043010752688</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>253.24468085106383</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>252.97894736842105</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>253.11458333333334</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>253.05154639175257</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>252.79591836734693</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>252.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>252.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC46-B246-B19B-6FCE5A423592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumtotal50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>205.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>205.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>211.875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>208.45454545454547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>203.38461538461539</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>202.92857142857142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>203.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>204.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.05555555555554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201.47368421052633</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>200.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>199.86363636363637</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>198.78260869565219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>199.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>199.08</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>200.26923076923077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>199.14814814814815</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>198.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>198.93103448275863</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>200.2258064516129</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>201.375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200.93939393939394</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>200.79411764705881</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>200.25714285714287</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>201.64864864864865</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>201.02631578947367</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200.64102564102564</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>202.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>202.09756097560975</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>201.52380952380952</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>201.58139534883722</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>200.86363636363637</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>201.24444444444444</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>201.15217391304347</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200.78723404255319</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>200.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>200.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>200.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>200.15686274509804</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>199.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>199.71698113207546</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>199.74074074074073</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>199.65454545454546</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>199.48214285714286</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>199.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>199.43103448275863</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>199.22033898305085</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>198.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>198.98360655737704</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>198.98387096774192</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>198.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>198.90625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>198.96923076923076</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>199.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>199.77611940298507</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>200.04411764705881</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>199.78260869565219</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>199.84285714285716</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>199.66197183098592</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>199.77777777777777</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>199.60273972602741</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>199.37837837837839</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>199.52</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>199.60526315789474</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>200.11688311688312</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>199.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>200.12658227848101</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>200.38749999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>200.54320987654322</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>200.5609756097561</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>200.42168674698794</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>200.5595238095238</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>200.45882352941177</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>200.40697674418604</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>200.48275862068965</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>200.18181818181819</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>199.88764044943821</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>199.85555555555555</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>199.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>199.70652173913044</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>199.7741935483871</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>199.41489361702128</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>199.14736842105262</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>199.375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>199.27835051546393</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>199.09183673469389</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>198.94949494949495</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>198.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC46-B246-B19B-6FCE5A423592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1796916255"/>
+        <c:axId val="1796917967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1796916255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796917967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1796917967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-TH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796916255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-TH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-TH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2097,7 +3808,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2654,6 +4921,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2D8F1E-386F-80FD-1197-04F43315130A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -2982,8 +5290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6930,4 +9238,4471 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708E15DC-1094-F746-97A9-3A49ADF28FE1}">
+  <dimension ref="A1:L102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>271</v>
+      </c>
+      <c r="E2">
+        <v>270</v>
+      </c>
+      <c r="F2">
+        <v>241</v>
+      </c>
+      <c r="G2">
+        <v>173</v>
+      </c>
+      <c r="I2">
+        <f>D2/$A2</f>
+        <v>271</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:L2" si="0">E2/$A2</f>
+        <v>270</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>296</v>
+      </c>
+      <c r="E3">
+        <v>295</v>
+      </c>
+      <c r="F3">
+        <v>250</v>
+      </c>
+      <c r="G3">
+        <v>197</v>
+      </c>
+      <c r="I3">
+        <f>SUM($D$2:D3)/$A3</f>
+        <v>283.5</v>
+      </c>
+      <c r="J3">
+        <f>SUM($E$2:E3)/$A3</f>
+        <v>282.5</v>
+      </c>
+      <c r="K3">
+        <f>SUM($F$2:F3)/$A3</f>
+        <v>245.5</v>
+      </c>
+      <c r="L3">
+        <f>SUM($G$2:G3)/$A3</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>288</v>
+      </c>
+      <c r="E4">
+        <v>287</v>
+      </c>
+      <c r="F4">
+        <v>241</v>
+      </c>
+      <c r="G4">
+        <v>189</v>
+      </c>
+      <c r="I4">
+        <f>SUM($D$2:D4)/$A4</f>
+        <v>285</v>
+      </c>
+      <c r="J4">
+        <f>SUM($E$2:E4)/$A4</f>
+        <v>284</v>
+      </c>
+      <c r="K4">
+        <f>SUM($F$2:F4)/$A4</f>
+        <v>244</v>
+      </c>
+      <c r="L4">
+        <f>SUM($G$2:G4)/$A4</f>
+        <v>186.33333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>364</v>
+      </c>
+      <c r="E5">
+        <v>363</v>
+      </c>
+      <c r="F5">
+        <v>329</v>
+      </c>
+      <c r="G5">
+        <v>264</v>
+      </c>
+      <c r="I5">
+        <f>SUM($D$2:D5)/$A5</f>
+        <v>304.75</v>
+      </c>
+      <c r="J5">
+        <f>SUM($E$2:E5)/$A5</f>
+        <v>303.75</v>
+      </c>
+      <c r="K5">
+        <f>SUM($F$2:F5)/$A5</f>
+        <v>265.25</v>
+      </c>
+      <c r="L5">
+        <f>SUM($G$2:G5)/$A5</f>
+        <v>205.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>322</v>
+      </c>
+      <c r="E6">
+        <v>321</v>
+      </c>
+      <c r="F6">
+        <v>295</v>
+      </c>
+      <c r="G6">
+        <v>194</v>
+      </c>
+      <c r="I6">
+        <f>SUM($D$2:D6)/$A6</f>
+        <v>308.2</v>
+      </c>
+      <c r="J6">
+        <f>SUM($E$2:E6)/$A6</f>
+        <v>307.2</v>
+      </c>
+      <c r="K6">
+        <f>SUM($F$2:F6)/$A6</f>
+        <v>271.2</v>
+      </c>
+      <c r="L6">
+        <f>SUM($G$2:G6)/$A6</f>
+        <v>203.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>328</v>
+      </c>
+      <c r="E7">
+        <v>327</v>
+      </c>
+      <c r="F7">
+        <v>287</v>
+      </c>
+      <c r="G7">
+        <v>218</v>
+      </c>
+      <c r="I7">
+        <f>SUM($D$2:D7)/$A7</f>
+        <v>311.5</v>
+      </c>
+      <c r="J7">
+        <f>SUM($E$2:E7)/$A7</f>
+        <v>310.5</v>
+      </c>
+      <c r="K7">
+        <f>SUM($F$2:F7)/$A7</f>
+        <v>273.83333333333331</v>
+      </c>
+      <c r="L7">
+        <f>SUM($G$2:G7)/$A7</f>
+        <v>205.83333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>283</v>
+      </c>
+      <c r="E8">
+        <v>282</v>
+      </c>
+      <c r="F8">
+        <v>261</v>
+      </c>
+      <c r="G8">
+        <v>206</v>
+      </c>
+      <c r="I8">
+        <f>SUM($D$2:D8)/$A8</f>
+        <v>307.42857142857144</v>
+      </c>
+      <c r="J8">
+        <f>SUM($E$2:E8)/$A8</f>
+        <v>306.42857142857144</v>
+      </c>
+      <c r="K8">
+        <f>SUM($F$2:F8)/$A8</f>
+        <v>272</v>
+      </c>
+      <c r="L8">
+        <f>SUM($G$2:G8)/$A8</f>
+        <v>205.85714285714286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>358</v>
+      </c>
+      <c r="E9">
+        <v>357</v>
+      </c>
+      <c r="F9">
+        <v>322</v>
+      </c>
+      <c r="G9">
+        <v>254</v>
+      </c>
+      <c r="I9">
+        <f>SUM($D$2:D9)/$A9</f>
+        <v>313.75</v>
+      </c>
+      <c r="J9">
+        <f>SUM($E$2:E9)/$A9</f>
+        <v>312.75</v>
+      </c>
+      <c r="K9">
+        <f>SUM($F$2:F9)/$A9</f>
+        <v>278.25</v>
+      </c>
+      <c r="L9">
+        <f>SUM($G$2:G9)/$A9</f>
+        <v>211.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>323</v>
+      </c>
+      <c r="E10">
+        <v>322</v>
+      </c>
+      <c r="F10">
+        <v>222</v>
+      </c>
+      <c r="G10">
+        <v>174</v>
+      </c>
+      <c r="I10">
+        <f>SUM($D$2:D10)/$A10</f>
+        <v>314.77777777777777</v>
+      </c>
+      <c r="J10">
+        <f>SUM($E$2:E10)/$A10</f>
+        <v>313.77777777777777</v>
+      </c>
+      <c r="K10">
+        <f>SUM($F$2:F10)/$A10</f>
+        <v>272</v>
+      </c>
+      <c r="L10">
+        <f>SUM($G$2:G10)/$A10</f>
+        <v>207.66666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>315</v>
+      </c>
+      <c r="E11">
+        <v>314</v>
+      </c>
+      <c r="F11">
+        <v>279</v>
+      </c>
+      <c r="G11">
+        <v>238</v>
+      </c>
+      <c r="I11">
+        <f>SUM($D$2:D11)/$A11</f>
+        <v>314.8</v>
+      </c>
+      <c r="J11">
+        <f>SUM($E$2:E11)/$A11</f>
+        <v>313.8</v>
+      </c>
+      <c r="K11">
+        <f>SUM($F$2:F11)/$A11</f>
+        <v>272.7</v>
+      </c>
+      <c r="L11">
+        <f>SUM($G$2:G11)/$A11</f>
+        <v>210.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>257</v>
+      </c>
+      <c r="E12">
+        <v>256</v>
+      </c>
+      <c r="F12">
+        <v>230</v>
+      </c>
+      <c r="G12">
+        <v>186</v>
+      </c>
+      <c r="I12">
+        <f>SUM($D$2:D12)/$A12</f>
+        <v>309.54545454545456</v>
+      </c>
+      <c r="J12">
+        <f>SUM($E$2:E12)/$A12</f>
+        <v>308.54545454545456</v>
+      </c>
+      <c r="K12">
+        <f>SUM($F$2:F12)/$A12</f>
+        <v>268.81818181818181</v>
+      </c>
+      <c r="L12">
+        <f>SUM($G$2:G12)/$A12</f>
+        <v>208.45454545454547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>273</v>
+      </c>
+      <c r="E13">
+        <v>272</v>
+      </c>
+      <c r="F13">
+        <v>220</v>
+      </c>
+      <c r="G13">
+        <v>188</v>
+      </c>
+      <c r="I13">
+        <f>SUM($D$2:D13)/$A13</f>
+        <v>306.5</v>
+      </c>
+      <c r="J13">
+        <f>SUM($E$2:E13)/$A13</f>
+        <v>305.5</v>
+      </c>
+      <c r="K13">
+        <f>SUM($F$2:F13)/$A13</f>
+        <v>264.75</v>
+      </c>
+      <c r="L13">
+        <f>SUM($G$2:G13)/$A13</f>
+        <v>206.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>284</v>
+      </c>
+      <c r="E14">
+        <v>283</v>
+      </c>
+      <c r="F14">
+        <v>212</v>
+      </c>
+      <c r="G14">
+        <v>163</v>
+      </c>
+      <c r="I14">
+        <f>SUM($D$2:D14)/$A14</f>
+        <v>304.76923076923077</v>
+      </c>
+      <c r="J14">
+        <f>SUM($E$2:E14)/$A14</f>
+        <v>303.76923076923077</v>
+      </c>
+      <c r="K14">
+        <f>SUM($F$2:F14)/$A14</f>
+        <v>260.69230769230768</v>
+      </c>
+      <c r="L14">
+        <f>SUM($G$2:G14)/$A14</f>
+        <v>203.38461538461539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>283</v>
+      </c>
+      <c r="E15">
+        <v>282</v>
+      </c>
+      <c r="F15">
+        <v>252</v>
+      </c>
+      <c r="G15">
+        <v>197</v>
+      </c>
+      <c r="I15">
+        <f>SUM($D$2:D15)/$A15</f>
+        <v>303.21428571428572</v>
+      </c>
+      <c r="J15">
+        <f>SUM($E$2:E15)/$A15</f>
+        <v>302.21428571428572</v>
+      </c>
+      <c r="K15">
+        <f>SUM($F$2:F15)/$A15</f>
+        <v>260.07142857142856</v>
+      </c>
+      <c r="L15">
+        <f>SUM($G$2:G15)/$A15</f>
+        <v>202.92857142857142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>315</v>
+      </c>
+      <c r="E16">
+        <v>314</v>
+      </c>
+      <c r="F16">
+        <v>267</v>
+      </c>
+      <c r="G16">
+        <v>214</v>
+      </c>
+      <c r="I16">
+        <f>SUM($D$2:D16)/$A16</f>
+        <v>304</v>
+      </c>
+      <c r="J16">
+        <f>SUM($E$2:E16)/$A16</f>
+        <v>303</v>
+      </c>
+      <c r="K16">
+        <f>SUM($F$2:F16)/$A16</f>
+        <v>260.53333333333336</v>
+      </c>
+      <c r="L16">
+        <f>SUM($G$2:G16)/$A16</f>
+        <v>203.66666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>321</v>
+      </c>
+      <c r="E17">
+        <v>320</v>
+      </c>
+      <c r="F17">
+        <v>287</v>
+      </c>
+      <c r="G17">
+        <v>213</v>
+      </c>
+      <c r="I17">
+        <f>SUM($D$2:D17)/$A17</f>
+        <v>305.0625</v>
+      </c>
+      <c r="J17">
+        <f>SUM($E$2:E17)/$A17</f>
+        <v>304.0625</v>
+      </c>
+      <c r="K17">
+        <f>SUM($F$2:F17)/$A17</f>
+        <v>262.1875</v>
+      </c>
+      <c r="L17">
+        <f>SUM($G$2:G17)/$A17</f>
+        <v>204.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>331</v>
+      </c>
+      <c r="E18">
+        <v>330</v>
+      </c>
+      <c r="F18">
+        <v>224</v>
+      </c>
+      <c r="G18">
+        <v>183</v>
+      </c>
+      <c r="I18">
+        <f>SUM($D$2:D18)/$A18</f>
+        <v>306.58823529411762</v>
+      </c>
+      <c r="J18">
+        <f>SUM($E$2:E18)/$A18</f>
+        <v>305.58823529411762</v>
+      </c>
+      <c r="K18">
+        <f>SUM($F$2:F18)/$A18</f>
+        <v>259.94117647058823</v>
+      </c>
+      <c r="L18">
+        <f>SUM($G$2:G18)/$A18</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>302</v>
+      </c>
+      <c r="E19">
+        <v>301</v>
+      </c>
+      <c r="F19">
+        <v>243</v>
+      </c>
+      <c r="G19">
+        <v>204</v>
+      </c>
+      <c r="I19">
+        <f>SUM($D$2:D19)/$A19</f>
+        <v>306.33333333333331</v>
+      </c>
+      <c r="J19">
+        <f>SUM($E$2:E19)/$A19</f>
+        <v>305.33333333333331</v>
+      </c>
+      <c r="K19">
+        <f>SUM($F$2:F19)/$A19</f>
+        <v>259</v>
+      </c>
+      <c r="L19">
+        <f>SUM($G$2:G19)/$A19</f>
+        <v>203.05555555555554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>260</v>
+      </c>
+      <c r="E20">
+        <v>259</v>
+      </c>
+      <c r="F20">
+        <v>224</v>
+      </c>
+      <c r="G20">
+        <v>173</v>
+      </c>
+      <c r="I20">
+        <f>SUM($D$2:D20)/$A20</f>
+        <v>303.89473684210526</v>
+      </c>
+      <c r="J20">
+        <f>SUM($E$2:E20)/$A20</f>
+        <v>302.89473684210526</v>
+      </c>
+      <c r="K20">
+        <f>SUM($F$2:F20)/$A20</f>
+        <v>257.15789473684208</v>
+      </c>
+      <c r="L20">
+        <f>SUM($G$2:G20)/$A20</f>
+        <v>201.47368421052633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>280</v>
+      </c>
+      <c r="E21">
+        <v>279</v>
+      </c>
+      <c r="F21">
+        <v>249</v>
+      </c>
+      <c r="G21">
+        <v>194</v>
+      </c>
+      <c r="I21">
+        <f>SUM($D$2:D21)/$A21</f>
+        <v>302.7</v>
+      </c>
+      <c r="J21">
+        <f>SUM($E$2:E21)/$A21</f>
+        <v>301.7</v>
+      </c>
+      <c r="K21">
+        <f>SUM($F$2:F21)/$A21</f>
+        <v>256.75</v>
+      </c>
+      <c r="L21">
+        <f>SUM($G$2:G21)/$A21</f>
+        <v>201.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>340</v>
+      </c>
+      <c r="E22">
+        <v>339</v>
+      </c>
+      <c r="F22">
+        <v>226</v>
+      </c>
+      <c r="G22">
+        <v>184</v>
+      </c>
+      <c r="I22">
+        <f>SUM($D$2:D22)/$A22</f>
+        <v>304.47619047619048</v>
+      </c>
+      <c r="J22">
+        <f>SUM($E$2:E22)/$A22</f>
+        <v>303.47619047619048</v>
+      </c>
+      <c r="K22">
+        <f>SUM($F$2:F22)/$A22</f>
+        <v>255.28571428571428</v>
+      </c>
+      <c r="L22">
+        <f>SUM($G$2:G22)/$A22</f>
+        <v>200.28571428571428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>262</v>
+      </c>
+      <c r="E23">
+        <v>261</v>
+      </c>
+      <c r="F23">
+        <v>240</v>
+      </c>
+      <c r="G23">
+        <v>191</v>
+      </c>
+      <c r="I23">
+        <f>SUM($D$2:D23)/$A23</f>
+        <v>302.54545454545456</v>
+      </c>
+      <c r="J23">
+        <f>SUM($E$2:E23)/$A23</f>
+        <v>301.54545454545456</v>
+      </c>
+      <c r="K23">
+        <f>SUM($F$2:F23)/$A23</f>
+        <v>254.59090909090909</v>
+      </c>
+      <c r="L23">
+        <f>SUM($G$2:G23)/$A23</f>
+        <v>199.86363636363637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>276</v>
+      </c>
+      <c r="E24">
+        <v>275</v>
+      </c>
+      <c r="F24">
+        <v>228</v>
+      </c>
+      <c r="G24">
+        <v>175</v>
+      </c>
+      <c r="I24">
+        <f>SUM($D$2:D24)/$A24</f>
+        <v>301.39130434782606</v>
+      </c>
+      <c r="J24">
+        <f>SUM($E$2:E24)/$A24</f>
+        <v>300.39130434782606</v>
+      </c>
+      <c r="K24">
+        <f>SUM($F$2:F24)/$A24</f>
+        <v>253.43478260869566</v>
+      </c>
+      <c r="L24">
+        <f>SUM($G$2:G24)/$A24</f>
+        <v>198.78260869565219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>316</v>
+      </c>
+      <c r="E25">
+        <v>315</v>
+      </c>
+      <c r="F25">
+        <v>272</v>
+      </c>
+      <c r="G25">
+        <v>225</v>
+      </c>
+      <c r="I25">
+        <f>SUM($D$2:D25)/$A25</f>
+        <v>302</v>
+      </c>
+      <c r="J25">
+        <f>SUM($E$2:E25)/$A25</f>
+        <v>301</v>
+      </c>
+      <c r="K25">
+        <f>SUM($F$2:F25)/$A25</f>
+        <v>254.20833333333334</v>
+      </c>
+      <c r="L25">
+        <f>SUM($G$2:G25)/$A25</f>
+        <v>199.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>270</v>
+      </c>
+      <c r="E26">
+        <v>269</v>
+      </c>
+      <c r="F26">
+        <v>235</v>
+      </c>
+      <c r="G26">
+        <v>180</v>
+      </c>
+      <c r="I26">
+        <f>SUM($D$2:D26)/$A26</f>
+        <v>300.72000000000003</v>
+      </c>
+      <c r="J26">
+        <f>SUM($E$2:E26)/$A26</f>
+        <v>299.72000000000003</v>
+      </c>
+      <c r="K26">
+        <f>SUM($F$2:F26)/$A26</f>
+        <v>253.44</v>
+      </c>
+      <c r="L26">
+        <f>SUM($G$2:G26)/$A26</f>
+        <v>199.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>295</v>
+      </c>
+      <c r="E27">
+        <v>294</v>
+      </c>
+      <c r="F27">
+        <v>268</v>
+      </c>
+      <c r="G27">
+        <v>230</v>
+      </c>
+      <c r="I27">
+        <f>SUM($D$2:D27)/$A27</f>
+        <v>300.5</v>
+      </c>
+      <c r="J27">
+        <f>SUM($E$2:E27)/$A27</f>
+        <v>299.5</v>
+      </c>
+      <c r="K27">
+        <f>SUM($F$2:F27)/$A27</f>
+        <v>254</v>
+      </c>
+      <c r="L27">
+        <f>SUM($G$2:G27)/$A27</f>
+        <v>200.26923076923077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>258</v>
+      </c>
+      <c r="E28">
+        <v>257</v>
+      </c>
+      <c r="F28">
+        <v>214</v>
+      </c>
+      <c r="G28">
+        <v>170</v>
+      </c>
+      <c r="I28">
+        <f>SUM($D$2:D28)/$A28</f>
+        <v>298.92592592592592</v>
+      </c>
+      <c r="J28">
+        <f>SUM($E$2:E28)/$A28</f>
+        <v>297.92592592592592</v>
+      </c>
+      <c r="K28">
+        <f>SUM($F$2:F28)/$A28</f>
+        <v>252.5185185185185</v>
+      </c>
+      <c r="L28">
+        <f>SUM($G$2:G28)/$A28</f>
+        <v>199.14814814814815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>293</v>
+      </c>
+      <c r="E29">
+        <v>292</v>
+      </c>
+      <c r="F29">
+        <v>242</v>
+      </c>
+      <c r="G29">
+        <v>181</v>
+      </c>
+      <c r="I29">
+        <f>SUM($D$2:D29)/$A29</f>
+        <v>298.71428571428572</v>
+      </c>
+      <c r="J29">
+        <f>SUM($E$2:E29)/$A29</f>
+        <v>297.71428571428572</v>
+      </c>
+      <c r="K29">
+        <f>SUM($F$2:F29)/$A29</f>
+        <v>252.14285714285714</v>
+      </c>
+      <c r="L29">
+        <f>SUM($G$2:G29)/$A29</f>
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>306</v>
+      </c>
+      <c r="E30">
+        <v>305</v>
+      </c>
+      <c r="F30">
+        <v>272</v>
+      </c>
+      <c r="G30">
+        <v>211</v>
+      </c>
+      <c r="I30">
+        <f>SUM($D$2:D30)/$A30</f>
+        <v>298.9655172413793</v>
+      </c>
+      <c r="J30">
+        <f>SUM($E$2:E30)/$A30</f>
+        <v>297.9655172413793</v>
+      </c>
+      <c r="K30">
+        <f>SUM($F$2:F30)/$A30</f>
+        <v>252.82758620689654</v>
+      </c>
+      <c r="L30">
+        <f>SUM($G$2:G30)/$A30</f>
+        <v>198.93103448275863</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>284</v>
+      </c>
+      <c r="E31">
+        <v>283</v>
+      </c>
+      <c r="F31">
+        <v>260</v>
+      </c>
+      <c r="G31">
+        <v>231</v>
+      </c>
+      <c r="I31">
+        <f>SUM($D$2:D31)/$A31</f>
+        <v>298.46666666666664</v>
+      </c>
+      <c r="J31">
+        <f>SUM($E$2:E31)/$A31</f>
+        <v>297.46666666666664</v>
+      </c>
+      <c r="K31">
+        <f>SUM($F$2:F31)/$A31</f>
+        <v>253.06666666666666</v>
+      </c>
+      <c r="L31">
+        <f>SUM($G$2:G31)/$A31</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>293</v>
+      </c>
+      <c r="E32">
+        <v>292</v>
+      </c>
+      <c r="F32">
+        <v>237</v>
+      </c>
+      <c r="G32">
+        <v>207</v>
+      </c>
+      <c r="I32">
+        <f>SUM($D$2:D32)/$A32</f>
+        <v>298.29032258064518</v>
+      </c>
+      <c r="J32">
+        <f>SUM($E$2:E32)/$A32</f>
+        <v>297.29032258064518</v>
+      </c>
+      <c r="K32">
+        <f>SUM($F$2:F32)/$A32</f>
+        <v>252.54838709677421</v>
+      </c>
+      <c r="L32">
+        <f>SUM($G$2:G32)/$A32</f>
+        <v>200.2258064516129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>330</v>
+      </c>
+      <c r="E33">
+        <v>329</v>
+      </c>
+      <c r="F33">
+        <v>297</v>
+      </c>
+      <c r="G33">
+        <v>237</v>
+      </c>
+      <c r="I33">
+        <f>SUM($D$2:D33)/$A33</f>
+        <v>299.28125</v>
+      </c>
+      <c r="J33">
+        <f>SUM($E$2:E33)/$A33</f>
+        <v>298.28125</v>
+      </c>
+      <c r="K33">
+        <f>SUM($F$2:F33)/$A33</f>
+        <v>253.9375</v>
+      </c>
+      <c r="L33">
+        <f>SUM($G$2:G33)/$A33</f>
+        <v>201.375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>304</v>
+      </c>
+      <c r="E34">
+        <v>303</v>
+      </c>
+      <c r="F34">
+        <v>275</v>
+      </c>
+      <c r="G34">
+        <v>187</v>
+      </c>
+      <c r="I34">
+        <f>SUM($D$2:D34)/$A34</f>
+        <v>299.42424242424244</v>
+      </c>
+      <c r="J34">
+        <f>SUM($E$2:E34)/$A34</f>
+        <v>298.42424242424244</v>
+      </c>
+      <c r="K34">
+        <f>SUM($F$2:F34)/$A34</f>
+        <v>254.57575757575756</v>
+      </c>
+      <c r="L34">
+        <f>SUM($G$2:G34)/$A34</f>
+        <v>200.93939393939394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>33</v>
+      </c>
+      <c r="D35">
+        <v>284</v>
+      </c>
+      <c r="E35">
+        <v>283</v>
+      </c>
+      <c r="F35">
+        <v>253</v>
+      </c>
+      <c r="G35">
+        <v>196</v>
+      </c>
+      <c r="I35">
+        <f>SUM($D$2:D35)/$A35</f>
+        <v>298.97058823529414</v>
+      </c>
+      <c r="J35">
+        <f>SUM($E$2:E35)/$A35</f>
+        <v>297.97058823529414</v>
+      </c>
+      <c r="K35">
+        <f>SUM($F$2:F35)/$A35</f>
+        <v>254.52941176470588</v>
+      </c>
+      <c r="L35">
+        <f>SUM($G$2:G35)/$A35</f>
+        <v>200.79411764705881</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>34</v>
+      </c>
+      <c r="D36">
+        <v>313</v>
+      </c>
+      <c r="E36">
+        <v>312</v>
+      </c>
+      <c r="F36">
+        <v>277</v>
+      </c>
+      <c r="G36">
+        <v>182</v>
+      </c>
+      <c r="I36">
+        <f>SUM($D$2:D36)/$A36</f>
+        <v>299.37142857142857</v>
+      </c>
+      <c r="J36">
+        <f>SUM($E$2:E36)/$A36</f>
+        <v>298.37142857142857</v>
+      </c>
+      <c r="K36">
+        <f>SUM($F$2:F36)/$A36</f>
+        <v>255.17142857142858</v>
+      </c>
+      <c r="L36">
+        <f>SUM($G$2:G36)/$A36</f>
+        <v>200.25714285714287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>329</v>
+      </c>
+      <c r="E37">
+        <v>328</v>
+      </c>
+      <c r="F37">
+        <v>301</v>
+      </c>
+      <c r="G37">
+        <v>263</v>
+      </c>
+      <c r="I37">
+        <f>SUM($D$2:D37)/$A37</f>
+        <v>300.19444444444446</v>
+      </c>
+      <c r="J37">
+        <f>SUM($E$2:E37)/$A37</f>
+        <v>299.19444444444446</v>
+      </c>
+      <c r="K37">
+        <f>SUM($F$2:F37)/$A37</f>
+        <v>256.44444444444446</v>
+      </c>
+      <c r="L37">
+        <f>SUM($G$2:G37)/$A37</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38">
+        <v>36</v>
+      </c>
+      <c r="D38">
+        <v>274</v>
+      </c>
+      <c r="E38">
+        <v>273</v>
+      </c>
+      <c r="F38">
+        <v>241</v>
+      </c>
+      <c r="G38">
+        <v>189</v>
+      </c>
+      <c r="I38">
+        <f>SUM($D$2:D38)/$A38</f>
+        <v>299.48648648648651</v>
+      </c>
+      <c r="J38">
+        <f>SUM($E$2:E38)/$A38</f>
+        <v>298.48648648648651</v>
+      </c>
+      <c r="K38">
+        <f>SUM($F$2:F38)/$A38</f>
+        <v>256.02702702702703</v>
+      </c>
+      <c r="L38">
+        <f>SUM($G$2:G38)/$A38</f>
+        <v>201.64864864864865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39">
+        <v>37</v>
+      </c>
+      <c r="D39">
+        <v>269</v>
+      </c>
+      <c r="E39">
+        <v>268</v>
+      </c>
+      <c r="F39">
+        <v>223</v>
+      </c>
+      <c r="G39">
+        <v>178</v>
+      </c>
+      <c r="I39">
+        <f>SUM($D$2:D39)/$A39</f>
+        <v>298.68421052631578</v>
+      </c>
+      <c r="J39">
+        <f>SUM($E$2:E39)/$A39</f>
+        <v>297.68421052631578</v>
+      </c>
+      <c r="K39">
+        <f>SUM($F$2:F39)/$A39</f>
+        <v>255.15789473684211</v>
+      </c>
+      <c r="L39">
+        <f>SUM($G$2:G39)/$A39</f>
+        <v>201.02631578947367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>38</v>
+      </c>
+      <c r="D40">
+        <v>268</v>
+      </c>
+      <c r="E40">
+        <v>267</v>
+      </c>
+      <c r="F40">
+        <v>232</v>
+      </c>
+      <c r="G40">
+        <v>186</v>
+      </c>
+      <c r="I40">
+        <f>SUM($D$2:D40)/$A40</f>
+        <v>297.89743589743591</v>
+      </c>
+      <c r="J40">
+        <f>SUM($E$2:E40)/$A40</f>
+        <v>296.89743589743591</v>
+      </c>
+      <c r="K40">
+        <f>SUM($F$2:F40)/$A40</f>
+        <v>254.56410256410257</v>
+      </c>
+      <c r="L40">
+        <f>SUM($G$2:G40)/$A40</f>
+        <v>200.64102564102564</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>331</v>
+      </c>
+      <c r="E41">
+        <v>330</v>
+      </c>
+      <c r="F41">
+        <v>304</v>
+      </c>
+      <c r="G41">
+        <v>261</v>
+      </c>
+      <c r="I41">
+        <f>SUM($D$2:D41)/$A41</f>
+        <v>298.72500000000002</v>
+      </c>
+      <c r="J41">
+        <f>SUM($E$2:E41)/$A41</f>
+        <v>297.72500000000002</v>
+      </c>
+      <c r="K41">
+        <f>SUM($F$2:F41)/$A41</f>
+        <v>255.8</v>
+      </c>
+      <c r="L41">
+        <f>SUM($G$2:G41)/$A41</f>
+        <v>202.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>346</v>
+      </c>
+      <c r="E42">
+        <v>345</v>
+      </c>
+      <c r="F42">
+        <v>235</v>
+      </c>
+      <c r="G42">
+        <v>200</v>
+      </c>
+      <c r="I42">
+        <f>SUM($D$2:D42)/$A42</f>
+        <v>299.8780487804878</v>
+      </c>
+      <c r="J42">
+        <f>SUM($E$2:E42)/$A42</f>
+        <v>298.8780487804878</v>
+      </c>
+      <c r="K42">
+        <f>SUM($F$2:F42)/$A42</f>
+        <v>255.29268292682926</v>
+      </c>
+      <c r="L42">
+        <f>SUM($G$2:G42)/$A42</f>
+        <v>202.09756097560975</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>281</v>
+      </c>
+      <c r="E43">
+        <v>280</v>
+      </c>
+      <c r="F43">
+        <v>254</v>
+      </c>
+      <c r="G43">
+        <v>178</v>
+      </c>
+      <c r="I43">
+        <f>SUM($D$2:D43)/$A43</f>
+        <v>299.42857142857144</v>
+      </c>
+      <c r="J43">
+        <f>SUM($E$2:E43)/$A43</f>
+        <v>298.42857142857144</v>
+      </c>
+      <c r="K43">
+        <f>SUM($F$2:F43)/$A43</f>
+        <v>255.26190476190476</v>
+      </c>
+      <c r="L43">
+        <f>SUM($G$2:G43)/$A43</f>
+        <v>201.52380952380952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>42</v>
+      </c>
+      <c r="D44">
+        <v>271</v>
+      </c>
+      <c r="E44">
+        <v>270</v>
+      </c>
+      <c r="F44">
+        <v>245</v>
+      </c>
+      <c r="G44">
+        <v>204</v>
+      </c>
+      <c r="I44">
+        <f>SUM($D$2:D44)/$A44</f>
+        <v>298.76744186046511</v>
+      </c>
+      <c r="J44">
+        <f>SUM($E$2:E44)/$A44</f>
+        <v>297.76744186046511</v>
+      </c>
+      <c r="K44">
+        <f>SUM($F$2:F44)/$A44</f>
+        <v>255.02325581395348</v>
+      </c>
+      <c r="L44">
+        <f>SUM($G$2:G44)/$A44</f>
+        <v>201.58139534883722</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45">
+        <v>43</v>
+      </c>
+      <c r="D45">
+        <v>286</v>
+      </c>
+      <c r="E45">
+        <v>285</v>
+      </c>
+      <c r="F45">
+        <v>240</v>
+      </c>
+      <c r="G45">
+        <v>170</v>
+      </c>
+      <c r="I45">
+        <f>SUM($D$2:D45)/$A45</f>
+        <v>298.47727272727275</v>
+      </c>
+      <c r="J45">
+        <f>SUM($E$2:E45)/$A45</f>
+        <v>297.47727272727275</v>
+      </c>
+      <c r="K45">
+        <f>SUM($F$2:F45)/$A45</f>
+        <v>254.68181818181819</v>
+      </c>
+      <c r="L45">
+        <f>SUM($G$2:G45)/$A45</f>
+        <v>200.86363636363637</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>44</v>
+      </c>
+      <c r="D46">
+        <v>293</v>
+      </c>
+      <c r="E46">
+        <v>292</v>
+      </c>
+      <c r="F46">
+        <v>249</v>
+      </c>
+      <c r="G46">
+        <v>218</v>
+      </c>
+      <c r="I46">
+        <f>SUM($D$2:D46)/$A46</f>
+        <v>298.35555555555555</v>
+      </c>
+      <c r="J46">
+        <f>SUM($E$2:E46)/$A46</f>
+        <v>297.35555555555555</v>
+      </c>
+      <c r="K46">
+        <f>SUM($F$2:F46)/$A46</f>
+        <v>254.55555555555554</v>
+      </c>
+      <c r="L46">
+        <f>SUM($G$2:G46)/$A46</f>
+        <v>201.24444444444444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47">
+        <v>45</v>
+      </c>
+      <c r="D47">
+        <v>282</v>
+      </c>
+      <c r="E47">
+        <v>281</v>
+      </c>
+      <c r="F47">
+        <v>243</v>
+      </c>
+      <c r="G47">
+        <v>197</v>
+      </c>
+      <c r="I47">
+        <f>SUM($D$2:D47)/$A47</f>
+        <v>298</v>
+      </c>
+      <c r="J47">
+        <f>SUM($E$2:E47)/$A47</f>
+        <v>297</v>
+      </c>
+      <c r="K47">
+        <f>SUM($F$2:F47)/$A47</f>
+        <v>254.30434782608697</v>
+      </c>
+      <c r="L47">
+        <f>SUM($G$2:G47)/$A47</f>
+        <v>201.15217391304347</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>288</v>
+      </c>
+      <c r="E48">
+        <v>287</v>
+      </c>
+      <c r="F48">
+        <v>244</v>
+      </c>
+      <c r="G48">
+        <v>184</v>
+      </c>
+      <c r="I48">
+        <f>SUM($D$2:D48)/$A48</f>
+        <v>297.78723404255317</v>
+      </c>
+      <c r="J48">
+        <f>SUM($E$2:E48)/$A48</f>
+        <v>296.78723404255317</v>
+      </c>
+      <c r="K48">
+        <f>SUM($F$2:F48)/$A48</f>
+        <v>254.08510638297872</v>
+      </c>
+      <c r="L48">
+        <f>SUM($G$2:G48)/$A48</f>
+        <v>200.78723404255319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>284</v>
+      </c>
+      <c r="E49">
+        <v>283</v>
+      </c>
+      <c r="F49">
+        <v>222</v>
+      </c>
+      <c r="G49">
+        <v>187</v>
+      </c>
+      <c r="I49">
+        <f>SUM($D$2:D49)/$A49</f>
+        <v>297.5</v>
+      </c>
+      <c r="J49">
+        <f>SUM($E$2:E49)/$A49</f>
+        <v>296.5</v>
+      </c>
+      <c r="K49">
+        <f>SUM($F$2:F49)/$A49</f>
+        <v>253.41666666666666</v>
+      </c>
+      <c r="L49">
+        <f>SUM($G$2:G49)/$A49</f>
+        <v>200.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>297</v>
+      </c>
+      <c r="E50">
+        <v>296</v>
+      </c>
+      <c r="F50">
+        <v>244</v>
+      </c>
+      <c r="G50">
+        <v>197</v>
+      </c>
+      <c r="I50">
+        <f>SUM($D$2:D50)/$A50</f>
+        <v>297.48979591836735</v>
+      </c>
+      <c r="J50">
+        <f>SUM($E$2:E50)/$A50</f>
+        <v>296.48979591836735</v>
+      </c>
+      <c r="K50">
+        <f>SUM($F$2:F50)/$A50</f>
+        <v>253.22448979591837</v>
+      </c>
+      <c r="L50">
+        <f>SUM($G$2:G50)/$A50</f>
+        <v>200.42857142857142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>328</v>
+      </c>
+      <c r="E51">
+        <v>327</v>
+      </c>
+      <c r="F51">
+        <v>231</v>
+      </c>
+      <c r="G51">
+        <v>189</v>
+      </c>
+      <c r="I51">
+        <f>SUM($D$2:D51)/$A51</f>
+        <v>298.10000000000002</v>
+      </c>
+      <c r="J51">
+        <f>SUM($E$2:E51)/$A51</f>
+        <v>297.10000000000002</v>
+      </c>
+      <c r="K51">
+        <f>SUM($F$2:F51)/$A51</f>
+        <v>252.78</v>
+      </c>
+      <c r="L51">
+        <f>SUM($G$2:G51)/$A51</f>
+        <v>200.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>50</v>
+      </c>
+      <c r="D52">
+        <v>266</v>
+      </c>
+      <c r="E52">
+        <v>265</v>
+      </c>
+      <c r="F52">
+        <v>239</v>
+      </c>
+      <c r="G52">
+        <v>198</v>
+      </c>
+      <c r="I52">
+        <f>SUM($D$2:D52)/$A52</f>
+        <v>297.47058823529414</v>
+      </c>
+      <c r="J52">
+        <f>SUM($E$2:E52)/$A52</f>
+        <v>296.47058823529414</v>
+      </c>
+      <c r="K52">
+        <f>SUM($F$2:F52)/$A52</f>
+        <v>252.50980392156862</v>
+      </c>
+      <c r="L52">
+        <f>SUM($G$2:G52)/$A52</f>
+        <v>200.15686274509804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>264</v>
+      </c>
+      <c r="E53">
+        <v>263</v>
+      </c>
+      <c r="F53">
+        <v>216</v>
+      </c>
+      <c r="G53">
+        <v>180</v>
+      </c>
+      <c r="I53">
+        <f>SUM($D$2:D53)/$A53</f>
+        <v>296.82692307692309</v>
+      </c>
+      <c r="J53">
+        <f>SUM($E$2:E53)/$A53</f>
+        <v>295.82692307692309</v>
+      </c>
+      <c r="K53">
+        <f>SUM($F$2:F53)/$A53</f>
+        <v>251.80769230769232</v>
+      </c>
+      <c r="L53">
+        <f>SUM($G$2:G53)/$A53</f>
+        <v>199.76923076923077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>295</v>
+      </c>
+      <c r="E54">
+        <v>294</v>
+      </c>
+      <c r="F54">
+        <v>235</v>
+      </c>
+      <c r="G54">
+        <v>197</v>
+      </c>
+      <c r="I54">
+        <f>SUM($D$2:D54)/$A54</f>
+        <v>296.79245283018867</v>
+      </c>
+      <c r="J54">
+        <f>SUM($E$2:E54)/$A54</f>
+        <v>295.79245283018867</v>
+      </c>
+      <c r="K54">
+        <f>SUM($F$2:F54)/$A54</f>
+        <v>251.49056603773585</v>
+      </c>
+      <c r="L54">
+        <f>SUM($G$2:G54)/$A54</f>
+        <v>199.71698113207546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>279</v>
+      </c>
+      <c r="E55">
+        <v>278</v>
+      </c>
+      <c r="F55">
+        <v>236</v>
+      </c>
+      <c r="G55">
+        <v>201</v>
+      </c>
+      <c r="I55">
+        <f>SUM($D$2:D55)/$A55</f>
+        <v>296.46296296296299</v>
+      </c>
+      <c r="J55">
+        <f>SUM($E$2:E55)/$A55</f>
+        <v>295.46296296296299</v>
+      </c>
+      <c r="K55">
+        <f>SUM($F$2:F55)/$A55</f>
+        <v>251.2037037037037</v>
+      </c>
+      <c r="L55">
+        <f>SUM($G$2:G55)/$A55</f>
+        <v>199.74074074074073</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>309</v>
+      </c>
+      <c r="E56">
+        <v>308</v>
+      </c>
+      <c r="F56">
+        <v>244</v>
+      </c>
+      <c r="G56">
+        <v>195</v>
+      </c>
+      <c r="I56">
+        <f>SUM($D$2:D56)/$A56</f>
+        <v>296.69090909090909</v>
+      </c>
+      <c r="J56">
+        <f>SUM($E$2:E56)/$A56</f>
+        <v>295.69090909090909</v>
+      </c>
+      <c r="K56">
+        <f>SUM($F$2:F56)/$A56</f>
+        <v>251.07272727272726</v>
+      </c>
+      <c r="L56">
+        <f>SUM($G$2:G56)/$A56</f>
+        <v>199.65454545454546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>319</v>
+      </c>
+      <c r="E57">
+        <v>318</v>
+      </c>
+      <c r="F57">
+        <v>231</v>
+      </c>
+      <c r="G57">
+        <v>190</v>
+      </c>
+      <c r="I57">
+        <f>SUM($D$2:D57)/$A57</f>
+        <v>297.08928571428572</v>
+      </c>
+      <c r="J57">
+        <f>SUM($E$2:E57)/$A57</f>
+        <v>296.08928571428572</v>
+      </c>
+      <c r="K57">
+        <f>SUM($F$2:F57)/$A57</f>
+        <v>250.71428571428572</v>
+      </c>
+      <c r="L57">
+        <f>SUM($G$2:G57)/$A57</f>
+        <v>199.48214285714286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>319</v>
+      </c>
+      <c r="E58">
+        <v>318</v>
+      </c>
+      <c r="F58">
+        <v>246</v>
+      </c>
+      <c r="G58">
+        <v>191</v>
+      </c>
+      <c r="I58">
+        <f>SUM($D$2:D58)/$A58</f>
+        <v>297.4736842105263</v>
+      </c>
+      <c r="J58">
+        <f>SUM($E$2:E58)/$A58</f>
+        <v>296.4736842105263</v>
+      </c>
+      <c r="K58">
+        <f>SUM($F$2:F58)/$A58</f>
+        <v>250.63157894736841</v>
+      </c>
+      <c r="L58">
+        <f>SUM($G$2:G58)/$A58</f>
+        <v>199.33333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>57</v>
+      </c>
+      <c r="D59">
+        <v>320</v>
+      </c>
+      <c r="E59">
+        <v>319</v>
+      </c>
+      <c r="F59">
+        <v>271</v>
+      </c>
+      <c r="G59">
+        <v>205</v>
+      </c>
+      <c r="I59">
+        <f>SUM($D$2:D59)/$A59</f>
+        <v>297.86206896551727</v>
+      </c>
+      <c r="J59">
+        <f>SUM($E$2:E59)/$A59</f>
+        <v>296.86206896551727</v>
+      </c>
+      <c r="K59">
+        <f>SUM($F$2:F59)/$A59</f>
+        <v>250.98275862068965</v>
+      </c>
+      <c r="L59">
+        <f>SUM($G$2:G59)/$A59</f>
+        <v>199.43103448275863</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>306</v>
+      </c>
+      <c r="E60">
+        <v>305</v>
+      </c>
+      <c r="F60">
+        <v>279</v>
+      </c>
+      <c r="G60">
+        <v>187</v>
+      </c>
+      <c r="I60">
+        <f>SUM($D$2:D60)/$A60</f>
+        <v>298</v>
+      </c>
+      <c r="J60">
+        <f>SUM($E$2:E60)/$A60</f>
+        <v>297</v>
+      </c>
+      <c r="K60">
+        <f>SUM($F$2:F60)/$A60</f>
+        <v>251.45762711864407</v>
+      </c>
+      <c r="L60">
+        <f>SUM($G$2:G60)/$A60</f>
+        <v>199.22033898305085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61">
+        <v>59</v>
+      </c>
+      <c r="D61">
+        <v>295</v>
+      </c>
+      <c r="E61">
+        <v>294</v>
+      </c>
+      <c r="F61">
+        <v>235</v>
+      </c>
+      <c r="G61">
+        <v>183</v>
+      </c>
+      <c r="I61">
+        <f>SUM($D$2:D61)/$A61</f>
+        <v>297.95</v>
+      </c>
+      <c r="J61">
+        <f>SUM($E$2:E61)/$A61</f>
+        <v>296.95</v>
+      </c>
+      <c r="K61">
+        <f>SUM($F$2:F61)/$A61</f>
+        <v>251.18333333333334</v>
+      </c>
+      <c r="L61">
+        <f>SUM($G$2:G61)/$A61</f>
+        <v>198.95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>306</v>
+      </c>
+      <c r="E62">
+        <v>305</v>
+      </c>
+      <c r="F62">
+        <v>257</v>
+      </c>
+      <c r="G62">
+        <v>201</v>
+      </c>
+      <c r="I62">
+        <f>SUM($D$2:D62)/$A62</f>
+        <v>298.08196721311475</v>
+      </c>
+      <c r="J62">
+        <f>SUM($E$2:E62)/$A62</f>
+        <v>297.08196721311475</v>
+      </c>
+      <c r="K62">
+        <f>SUM($F$2:F62)/$A62</f>
+        <v>251.27868852459017</v>
+      </c>
+      <c r="L62">
+        <f>SUM($G$2:G62)/$A62</f>
+        <v>198.98360655737704</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63">
+        <v>61</v>
+      </c>
+      <c r="D63">
+        <v>338</v>
+      </c>
+      <c r="E63">
+        <v>337</v>
+      </c>
+      <c r="F63">
+        <v>303</v>
+      </c>
+      <c r="G63">
+        <v>199</v>
+      </c>
+      <c r="I63">
+        <f>SUM($D$2:D63)/$A63</f>
+        <v>298.72580645161293</v>
+      </c>
+      <c r="J63">
+        <f>SUM($E$2:E63)/$A63</f>
+        <v>297.72580645161293</v>
+      </c>
+      <c r="K63">
+        <f>SUM($F$2:F63)/$A63</f>
+        <v>252.11290322580646</v>
+      </c>
+      <c r="L63">
+        <f>SUM($G$2:G63)/$A63</f>
+        <v>198.98387096774192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>265</v>
+      </c>
+      <c r="E64">
+        <v>264</v>
+      </c>
+      <c r="F64">
+        <v>218</v>
+      </c>
+      <c r="G64">
+        <v>182</v>
+      </c>
+      <c r="I64">
+        <f>SUM($D$2:D64)/$A64</f>
+        <v>298.1904761904762</v>
+      </c>
+      <c r="J64">
+        <f>SUM($E$2:E64)/$A64</f>
+        <v>297.1904761904762</v>
+      </c>
+      <c r="K64">
+        <f>SUM($F$2:F64)/$A64</f>
+        <v>251.57142857142858</v>
+      </c>
+      <c r="L64">
+        <f>SUM($G$2:G64)/$A64</f>
+        <v>198.71428571428572</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65">
+        <v>63</v>
+      </c>
+      <c r="D65">
+        <v>316</v>
+      </c>
+      <c r="E65">
+        <v>315</v>
+      </c>
+      <c r="F65">
+        <v>257</v>
+      </c>
+      <c r="G65">
+        <v>211</v>
+      </c>
+      <c r="I65">
+        <f>SUM($D$2:D65)/$A65</f>
+        <v>298.46875</v>
+      </c>
+      <c r="J65">
+        <f>SUM($E$2:E65)/$A65</f>
+        <v>297.46875</v>
+      </c>
+      <c r="K65">
+        <f>SUM($F$2:F65)/$A65</f>
+        <v>251.65625</v>
+      </c>
+      <c r="L65">
+        <f>SUM($G$2:G65)/$A65</f>
+        <v>198.90625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>334</v>
+      </c>
+      <c r="E66">
+        <v>333</v>
+      </c>
+      <c r="F66">
+        <v>306</v>
+      </c>
+      <c r="G66">
+        <v>203</v>
+      </c>
+      <c r="I66">
+        <f>SUM($D$2:D66)/$A66</f>
+        <v>299.01538461538462</v>
+      </c>
+      <c r="J66">
+        <f>SUM($E$2:E66)/$A66</f>
+        <v>298.01538461538462</v>
+      </c>
+      <c r="K66">
+        <f>SUM($F$2:F66)/$A66</f>
+        <v>252.49230769230769</v>
+      </c>
+      <c r="L66">
+        <f>SUM($G$2:G66)/$A66</f>
+        <v>198.96923076923076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>329</v>
+      </c>
+      <c r="E67">
+        <v>328</v>
+      </c>
+      <c r="F67">
+        <v>301</v>
+      </c>
+      <c r="G67">
+        <v>212</v>
+      </c>
+      <c r="I67">
+        <f>SUM($D$2:D67)/$A67</f>
+        <v>299.469696969697</v>
+      </c>
+      <c r="J67">
+        <f>SUM($E$2:E67)/$A67</f>
+        <v>298.469696969697</v>
+      </c>
+      <c r="K67">
+        <f>SUM($F$2:F67)/$A67</f>
+        <v>253.22727272727272</v>
+      </c>
+      <c r="L67">
+        <f>SUM($G$2:G67)/$A67</f>
+        <v>199.16666666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>334</v>
+      </c>
+      <c r="E68">
+        <v>333</v>
+      </c>
+      <c r="F68">
+        <v>298</v>
+      </c>
+      <c r="G68">
+        <v>240</v>
+      </c>
+      <c r="I68">
+        <f>SUM($D$2:D68)/$A68</f>
+        <v>299.9850746268657</v>
+      </c>
+      <c r="J68">
+        <f>SUM($E$2:E68)/$A68</f>
+        <v>298.9850746268657</v>
+      </c>
+      <c r="K68">
+        <f>SUM($F$2:F68)/$A68</f>
+        <v>253.8955223880597</v>
+      </c>
+      <c r="L68">
+        <f>SUM($G$2:G68)/$A68</f>
+        <v>199.77611940298507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>309</v>
+      </c>
+      <c r="E69">
+        <v>308</v>
+      </c>
+      <c r="F69">
+        <v>262</v>
+      </c>
+      <c r="G69">
+        <v>218</v>
+      </c>
+      <c r="I69">
+        <f>SUM($D$2:D69)/$A69</f>
+        <v>300.11764705882354</v>
+      </c>
+      <c r="J69">
+        <f>SUM($E$2:E69)/$A69</f>
+        <v>299.11764705882354</v>
+      </c>
+      <c r="K69">
+        <f>SUM($F$2:F69)/$A69</f>
+        <v>254.01470588235293</v>
+      </c>
+      <c r="L69">
+        <f>SUM($G$2:G69)/$A69</f>
+        <v>200.04411764705881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>278</v>
+      </c>
+      <c r="E70">
+        <v>277</v>
+      </c>
+      <c r="F70">
+        <v>226</v>
+      </c>
+      <c r="G70">
+        <v>182</v>
+      </c>
+      <c r="I70">
+        <f>SUM($D$2:D70)/$A70</f>
+        <v>299.79710144927537</v>
+      </c>
+      <c r="J70">
+        <f>SUM($E$2:E70)/$A70</f>
+        <v>298.79710144927537</v>
+      </c>
+      <c r="K70">
+        <f>SUM($F$2:F70)/$A70</f>
+        <v>253.60869565217391</v>
+      </c>
+      <c r="L70">
+        <f>SUM($G$2:G70)/$A70</f>
+        <v>199.78260869565219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>69</v>
+      </c>
+      <c r="D71">
+        <v>284</v>
+      </c>
+      <c r="E71">
+        <v>283</v>
+      </c>
+      <c r="F71">
+        <v>239</v>
+      </c>
+      <c r="G71">
+        <v>204</v>
+      </c>
+      <c r="I71">
+        <f>SUM($D$2:D71)/$A71</f>
+        <v>299.57142857142856</v>
+      </c>
+      <c r="J71">
+        <f>SUM($E$2:E71)/$A71</f>
+        <v>298.57142857142856</v>
+      </c>
+      <c r="K71">
+        <f>SUM($F$2:F71)/$A71</f>
+        <v>253.4</v>
+      </c>
+      <c r="L71">
+        <f>SUM($G$2:G71)/$A71</f>
+        <v>199.84285714285716</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>344</v>
+      </c>
+      <c r="E72">
+        <v>343</v>
+      </c>
+      <c r="F72">
+        <v>238</v>
+      </c>
+      <c r="G72">
+        <v>187</v>
+      </c>
+      <c r="I72">
+        <f>SUM($D$2:D72)/$A72</f>
+        <v>300.19718309859155</v>
+      </c>
+      <c r="J72">
+        <f>SUM($E$2:E72)/$A72</f>
+        <v>299.19718309859155</v>
+      </c>
+      <c r="K72">
+        <f>SUM($F$2:F72)/$A72</f>
+        <v>253.18309859154928</v>
+      </c>
+      <c r="L72">
+        <f>SUM($G$2:G72)/$A72</f>
+        <v>199.66197183098592</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>268</v>
+      </c>
+      <c r="E73">
+        <v>267</v>
+      </c>
+      <c r="F73">
+        <v>241</v>
+      </c>
+      <c r="G73">
+        <v>208</v>
+      </c>
+      <c r="I73">
+        <f>SUM($D$2:D73)/$A73</f>
+        <v>299.75</v>
+      </c>
+      <c r="J73">
+        <f>SUM($E$2:E73)/$A73</f>
+        <v>298.75</v>
+      </c>
+      <c r="K73">
+        <f>SUM($F$2:F73)/$A73</f>
+        <v>253.01388888888889</v>
+      </c>
+      <c r="L73">
+        <f>SUM($G$2:G73)/$A73</f>
+        <v>199.77777777777777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <v>72</v>
+      </c>
+      <c r="D74">
+        <v>316</v>
+      </c>
+      <c r="E74">
+        <v>315</v>
+      </c>
+      <c r="F74">
+        <v>292</v>
+      </c>
+      <c r="G74">
+        <v>187</v>
+      </c>
+      <c r="I74">
+        <f>SUM($D$2:D74)/$A74</f>
+        <v>299.97260273972603</v>
+      </c>
+      <c r="J74">
+        <f>SUM($E$2:E74)/$A74</f>
+        <v>298.97260273972603</v>
+      </c>
+      <c r="K74">
+        <f>SUM($F$2:F74)/$A74</f>
+        <v>253.54794520547946</v>
+      </c>
+      <c r="L74">
+        <f>SUM($G$2:G74)/$A74</f>
+        <v>199.60273972602741</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <v>73</v>
+      </c>
+      <c r="D75">
+        <v>300</v>
+      </c>
+      <c r="E75">
+        <v>299</v>
+      </c>
+      <c r="F75">
+        <v>223</v>
+      </c>
+      <c r="G75">
+        <v>183</v>
+      </c>
+      <c r="I75">
+        <f>SUM($D$2:D75)/$A75</f>
+        <v>299.97297297297297</v>
+      </c>
+      <c r="J75">
+        <f>SUM($E$2:E75)/$A75</f>
+        <v>298.97297297297297</v>
+      </c>
+      <c r="K75">
+        <f>SUM($F$2:F75)/$A75</f>
+        <v>253.13513513513513</v>
+      </c>
+      <c r="L75">
+        <f>SUM($G$2:G75)/$A75</f>
+        <v>199.37837837837839</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <v>74</v>
+      </c>
+      <c r="D76">
+        <v>312</v>
+      </c>
+      <c r="E76">
+        <v>311</v>
+      </c>
+      <c r="F76">
+        <v>263</v>
+      </c>
+      <c r="G76">
+        <v>210</v>
+      </c>
+      <c r="I76">
+        <f>SUM($D$2:D76)/$A76</f>
+        <v>300.13333333333333</v>
+      </c>
+      <c r="J76">
+        <f>SUM($E$2:E76)/$A76</f>
+        <v>299.13333333333333</v>
+      </c>
+      <c r="K76">
+        <f>SUM($F$2:F76)/$A76</f>
+        <v>253.26666666666668</v>
+      </c>
+      <c r="L76">
+        <f>SUM($G$2:G76)/$A76</f>
+        <v>199.52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77">
+        <v>75</v>
+      </c>
+      <c r="D77">
+        <v>325</v>
+      </c>
+      <c r="E77">
+        <v>324</v>
+      </c>
+      <c r="F77">
+        <v>259</v>
+      </c>
+      <c r="G77">
+        <v>206</v>
+      </c>
+      <c r="I77">
+        <f>SUM($D$2:D77)/$A77</f>
+        <v>300.46052631578948</v>
+      </c>
+      <c r="J77">
+        <f>SUM($E$2:E77)/$A77</f>
+        <v>299.46052631578948</v>
+      </c>
+      <c r="K77">
+        <f>SUM($F$2:F77)/$A77</f>
+        <v>253.34210526315789</v>
+      </c>
+      <c r="L77">
+        <f>SUM($G$2:G77)/$A77</f>
+        <v>199.60526315789474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>298</v>
+      </c>
+      <c r="E78">
+        <v>297</v>
+      </c>
+      <c r="F78">
+        <v>272</v>
+      </c>
+      <c r="G78">
+        <v>239</v>
+      </c>
+      <c r="I78">
+        <f>SUM($D$2:D78)/$A78</f>
+        <v>300.42857142857144</v>
+      </c>
+      <c r="J78">
+        <f>SUM($E$2:E78)/$A78</f>
+        <v>299.42857142857144</v>
+      </c>
+      <c r="K78">
+        <f>SUM($F$2:F78)/$A78</f>
+        <v>253.58441558441558</v>
+      </c>
+      <c r="L78">
+        <f>SUM($G$2:G78)/$A78</f>
+        <v>200.11688311688312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>265</v>
+      </c>
+      <c r="E79">
+        <v>264</v>
+      </c>
+      <c r="F79">
+        <v>219</v>
+      </c>
+      <c r="G79">
+        <v>173</v>
+      </c>
+      <c r="I79">
+        <f>SUM($D$2:D79)/$A79</f>
+        <v>299.97435897435895</v>
+      </c>
+      <c r="J79">
+        <f>SUM($E$2:E79)/$A79</f>
+        <v>298.97435897435895</v>
+      </c>
+      <c r="K79">
+        <f>SUM($F$2:F79)/$A79</f>
+        <v>253.14102564102564</v>
+      </c>
+      <c r="L79">
+        <f>SUM($G$2:G79)/$A79</f>
+        <v>199.76923076923077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80">
+        <v>78</v>
+      </c>
+      <c r="D80">
+        <v>302</v>
+      </c>
+      <c r="E80">
+        <v>301</v>
+      </c>
+      <c r="F80">
+        <v>281</v>
+      </c>
+      <c r="G80">
+        <v>228</v>
+      </c>
+      <c r="I80">
+        <f>SUM($D$2:D80)/$A80</f>
+        <v>300</v>
+      </c>
+      <c r="J80">
+        <f>SUM($E$2:E80)/$A80</f>
+        <v>299</v>
+      </c>
+      <c r="K80">
+        <f>SUM($F$2:F80)/$A80</f>
+        <v>253.49367088607596</v>
+      </c>
+      <c r="L80">
+        <f>SUM($G$2:G80)/$A80</f>
+        <v>200.12658227848101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>278</v>
+      </c>
+      <c r="E81">
+        <v>277</v>
+      </c>
+      <c r="F81">
+        <v>254</v>
+      </c>
+      <c r="G81">
+        <v>221</v>
+      </c>
+      <c r="I81">
+        <f>SUM($D$2:D81)/$A81</f>
+        <v>299.72500000000002</v>
+      </c>
+      <c r="J81">
+        <f>SUM($E$2:E81)/$A81</f>
+        <v>298.72500000000002</v>
+      </c>
+      <c r="K81">
+        <f>SUM($F$2:F81)/$A81</f>
+        <v>253.5</v>
+      </c>
+      <c r="L81">
+        <f>SUM($G$2:G81)/$A81</f>
+        <v>200.38749999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>306</v>
+      </c>
+      <c r="E82">
+        <v>305</v>
+      </c>
+      <c r="F82">
+        <v>265</v>
+      </c>
+      <c r="G82">
+        <v>213</v>
+      </c>
+      <c r="I82">
+        <f>SUM($D$2:D82)/$A82</f>
+        <v>299.80246913580248</v>
+      </c>
+      <c r="J82">
+        <f>SUM($E$2:E82)/$A82</f>
+        <v>298.80246913580248</v>
+      </c>
+      <c r="K82">
+        <f>SUM($F$2:F82)/$A82</f>
+        <v>253.64197530864197</v>
+      </c>
+      <c r="L82">
+        <f>SUM($G$2:G82)/$A82</f>
+        <v>200.54320987654322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>81</v>
+      </c>
+      <c r="D83">
+        <v>300</v>
+      </c>
+      <c r="E83">
+        <v>299</v>
+      </c>
+      <c r="F83">
+        <v>261</v>
+      </c>
+      <c r="G83">
+        <v>202</v>
+      </c>
+      <c r="I83">
+        <f>SUM($D$2:D83)/$A83</f>
+        <v>299.80487804878049</v>
+      </c>
+      <c r="J83">
+        <f>SUM($E$2:E83)/$A83</f>
+        <v>298.80487804878049</v>
+      </c>
+      <c r="K83">
+        <f>SUM($F$2:F83)/$A83</f>
+        <v>253.73170731707316</v>
+      </c>
+      <c r="L83">
+        <f>SUM($G$2:G83)/$A83</f>
+        <v>200.5609756097561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>82</v>
+      </c>
+      <c r="D84">
+        <v>294</v>
+      </c>
+      <c r="E84">
+        <v>293</v>
+      </c>
+      <c r="F84">
+        <v>267</v>
+      </c>
+      <c r="G84">
+        <v>189</v>
+      </c>
+      <c r="I84">
+        <f>SUM($D$2:D84)/$A84</f>
+        <v>299.73493975903614</v>
+      </c>
+      <c r="J84">
+        <f>SUM($E$2:E84)/$A84</f>
+        <v>298.73493975903614</v>
+      </c>
+      <c r="K84">
+        <f>SUM($F$2:F84)/$A84</f>
+        <v>253.89156626506025</v>
+      </c>
+      <c r="L84">
+        <f>SUM($G$2:G84)/$A84</f>
+        <v>200.42168674698794</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>83</v>
+      </c>
+      <c r="D85">
+        <v>329</v>
+      </c>
+      <c r="E85">
+        <v>328</v>
+      </c>
+      <c r="F85">
+        <v>302</v>
+      </c>
+      <c r="G85">
+        <v>212</v>
+      </c>
+      <c r="I85">
+        <f>SUM($D$2:D85)/$A85</f>
+        <v>300.08333333333331</v>
+      </c>
+      <c r="J85">
+        <f>SUM($E$2:E85)/$A85</f>
+        <v>299.08333333333331</v>
+      </c>
+      <c r="K85">
+        <f>SUM($F$2:F85)/$A85</f>
+        <v>254.46428571428572</v>
+      </c>
+      <c r="L85">
+        <f>SUM($G$2:G85)/$A85</f>
+        <v>200.5595238095238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86">
+        <v>84</v>
+      </c>
+      <c r="D86">
+        <v>304</v>
+      </c>
+      <c r="E86">
+        <v>303</v>
+      </c>
+      <c r="F86">
+        <v>247</v>
+      </c>
+      <c r="G86">
+        <v>192</v>
+      </c>
+      <c r="I86">
+        <f>SUM($D$2:D86)/$A86</f>
+        <v>300.12941176470588</v>
+      </c>
+      <c r="J86">
+        <f>SUM($E$2:E86)/$A86</f>
+        <v>299.12941176470588</v>
+      </c>
+      <c r="K86">
+        <f>SUM($F$2:F86)/$A86</f>
+        <v>254.37647058823529</v>
+      </c>
+      <c r="L86">
+        <f>SUM($G$2:G86)/$A86</f>
+        <v>200.45882352941177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87">
+        <v>85</v>
+      </c>
+      <c r="D87">
+        <v>342</v>
+      </c>
+      <c r="E87">
+        <v>341</v>
+      </c>
+      <c r="F87">
+        <v>235</v>
+      </c>
+      <c r="G87">
+        <v>196</v>
+      </c>
+      <c r="I87">
+        <f>SUM($D$2:D87)/$A87</f>
+        <v>300.61627906976742</v>
+      </c>
+      <c r="J87">
+        <f>SUM($E$2:E87)/$A87</f>
+        <v>299.61627906976742</v>
+      </c>
+      <c r="K87">
+        <f>SUM($F$2:F87)/$A87</f>
+        <v>254.15116279069767</v>
+      </c>
+      <c r="L87">
+        <f>SUM($G$2:G87)/$A87</f>
+        <v>200.40697674418604</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>86</v>
+      </c>
+      <c r="D88">
+        <v>263</v>
+      </c>
+      <c r="E88">
+        <v>262</v>
+      </c>
+      <c r="F88">
+        <v>236</v>
+      </c>
+      <c r="G88">
+        <v>207</v>
+      </c>
+      <c r="I88">
+        <f>SUM($D$2:D88)/$A88</f>
+        <v>300.18390804597703</v>
+      </c>
+      <c r="J88">
+        <f>SUM($E$2:E88)/$A88</f>
+        <v>299.18390804597703</v>
+      </c>
+      <c r="K88">
+        <f>SUM($F$2:F88)/$A88</f>
+        <v>253.94252873563218</v>
+      </c>
+      <c r="L88">
+        <f>SUM($G$2:G88)/$A88</f>
+        <v>200.48275862068965</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>87</v>
+      </c>
+      <c r="D89">
+        <v>284</v>
+      </c>
+      <c r="E89">
+        <v>283</v>
+      </c>
+      <c r="F89">
+        <v>213</v>
+      </c>
+      <c r="G89">
+        <v>174</v>
+      </c>
+      <c r="I89">
+        <f>SUM($D$2:D89)/$A89</f>
+        <v>300</v>
+      </c>
+      <c r="J89">
+        <f>SUM($E$2:E89)/$A89</f>
+        <v>299</v>
+      </c>
+      <c r="K89">
+        <f>SUM($F$2:F89)/$A89</f>
+        <v>253.47727272727272</v>
+      </c>
+      <c r="L89">
+        <f>SUM($G$2:G89)/$A89</f>
+        <v>200.18181818181819</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90">
+        <v>88</v>
+      </c>
+      <c r="D90">
+        <v>270</v>
+      </c>
+      <c r="E90">
+        <v>269</v>
+      </c>
+      <c r="F90">
+        <v>242</v>
+      </c>
+      <c r="G90">
+        <v>174</v>
+      </c>
+      <c r="I90">
+        <f>SUM($D$2:D90)/$A90</f>
+        <v>299.66292134831463</v>
+      </c>
+      <c r="J90">
+        <f>SUM($E$2:E90)/$A90</f>
+        <v>298.66292134831463</v>
+      </c>
+      <c r="K90">
+        <f>SUM($F$2:F90)/$A90</f>
+        <v>253.34831460674158</v>
+      </c>
+      <c r="L90">
+        <f>SUM($G$2:G90)/$A90</f>
+        <v>199.88764044943821</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91">
+        <v>89</v>
+      </c>
+      <c r="D91">
+        <v>330</v>
+      </c>
+      <c r="E91">
+        <v>329</v>
+      </c>
+      <c r="F91">
+        <v>287</v>
+      </c>
+      <c r="G91">
+        <v>197</v>
+      </c>
+      <c r="I91">
+        <f>SUM($D$2:D91)/$A91</f>
+        <v>300</v>
+      </c>
+      <c r="J91">
+        <f>SUM($E$2:E91)/$A91</f>
+        <v>299</v>
+      </c>
+      <c r="K91">
+        <f>SUM($F$2:F91)/$A91</f>
+        <v>253.72222222222223</v>
+      </c>
+      <c r="L91">
+        <f>SUM($G$2:G91)/$A91</f>
+        <v>199.85555555555555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>274</v>
+      </c>
+      <c r="E92">
+        <v>273</v>
+      </c>
+      <c r="F92">
+        <v>227</v>
+      </c>
+      <c r="G92">
+        <v>192</v>
+      </c>
+      <c r="I92">
+        <f>SUM($D$2:D92)/$A92</f>
+        <v>299.71428571428572</v>
+      </c>
+      <c r="J92">
+        <f>SUM($E$2:E92)/$A92</f>
+        <v>298.71428571428572</v>
+      </c>
+      <c r="K92">
+        <f>SUM($F$2:F92)/$A92</f>
+        <v>253.42857142857142</v>
+      </c>
+      <c r="L92">
+        <f>SUM($G$2:G92)/$A92</f>
+        <v>199.76923076923077</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>312</v>
+      </c>
+      <c r="E93">
+        <v>311</v>
+      </c>
+      <c r="F93">
+        <v>282</v>
+      </c>
+      <c r="G93">
+        <v>194</v>
+      </c>
+      <c r="I93">
+        <f>SUM($D$2:D93)/$A93</f>
+        <v>299.8478260869565</v>
+      </c>
+      <c r="J93">
+        <f>SUM($E$2:E93)/$A93</f>
+        <v>298.8478260869565</v>
+      </c>
+      <c r="K93">
+        <f>SUM($F$2:F93)/$A93</f>
+        <v>253.7391304347826</v>
+      </c>
+      <c r="L93">
+        <f>SUM($G$2:G93)/$A93</f>
+        <v>199.70652173913044</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>92</v>
+      </c>
+      <c r="D94">
+        <v>280</v>
+      </c>
+      <c r="E94">
+        <v>279</v>
+      </c>
+      <c r="F94">
+        <v>252</v>
+      </c>
+      <c r="G94">
+        <v>206</v>
+      </c>
+      <c r="I94">
+        <f>SUM($D$2:D94)/$A94</f>
+        <v>299.63440860215053</v>
+      </c>
+      <c r="J94">
+        <f>SUM($E$2:E94)/$A94</f>
+        <v>298.63440860215053</v>
+      </c>
+      <c r="K94">
+        <f>SUM($F$2:F94)/$A94</f>
+        <v>253.72043010752688</v>
+      </c>
+      <c r="L94">
+        <f>SUM($G$2:G94)/$A94</f>
+        <v>199.7741935483871</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <v>93</v>
+      </c>
+      <c r="D95">
+        <v>292</v>
+      </c>
+      <c r="E95">
+        <v>291</v>
+      </c>
+      <c r="F95">
+        <v>209</v>
+      </c>
+      <c r="G95">
+        <v>166</v>
+      </c>
+      <c r="I95">
+        <f>SUM($D$2:D95)/$A95</f>
+        <v>299.55319148936172</v>
+      </c>
+      <c r="J95">
+        <f>SUM($E$2:E95)/$A95</f>
+        <v>298.55319148936172</v>
+      </c>
+      <c r="K95">
+        <f>SUM($F$2:F95)/$A95</f>
+        <v>253.24468085106383</v>
+      </c>
+      <c r="L95">
+        <f>SUM($G$2:G95)/$A95</f>
+        <v>199.41489361702128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96">
+        <v>94</v>
+      </c>
+      <c r="D96">
+        <v>256</v>
+      </c>
+      <c r="E96">
+        <v>255</v>
+      </c>
+      <c r="F96">
+        <v>228</v>
+      </c>
+      <c r="G96">
+        <v>174</v>
+      </c>
+      <c r="I96">
+        <f>SUM($D$2:D96)/$A96</f>
+        <v>299.09473684210525</v>
+      </c>
+      <c r="J96">
+        <f>SUM($E$2:E96)/$A96</f>
+        <v>298.09473684210525</v>
+      </c>
+      <c r="K96">
+        <f>SUM($F$2:F96)/$A96</f>
+        <v>252.97894736842105</v>
+      </c>
+      <c r="L96">
+        <f>SUM($G$2:G96)/$A96</f>
+        <v>199.14736842105262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97">
+        <v>95</v>
+      </c>
+      <c r="D97">
+        <v>334</v>
+      </c>
+      <c r="E97">
+        <v>333</v>
+      </c>
+      <c r="F97">
+        <v>266</v>
+      </c>
+      <c r="G97">
+        <v>221</v>
+      </c>
+      <c r="I97">
+        <f>SUM($D$2:D97)/$A97</f>
+        <v>299.45833333333331</v>
+      </c>
+      <c r="J97">
+        <f>SUM($E$2:E97)/$A97</f>
+        <v>298.45833333333331</v>
+      </c>
+      <c r="K97">
+        <f>SUM($F$2:F97)/$A97</f>
+        <v>253.11458333333334</v>
+      </c>
+      <c r="L97">
+        <f>SUM($G$2:G97)/$A97</f>
+        <v>199.375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
+        <v>96</v>
+      </c>
+      <c r="D98">
+        <v>292</v>
+      </c>
+      <c r="E98">
+        <v>291</v>
+      </c>
+      <c r="F98">
+        <v>247</v>
+      </c>
+      <c r="G98">
+        <v>190</v>
+      </c>
+      <c r="I98">
+        <f>SUM($D$2:D98)/$A98</f>
+        <v>299.38144329896909</v>
+      </c>
+      <c r="J98">
+        <f>SUM($E$2:E98)/$A98</f>
+        <v>298.38144329896909</v>
+      </c>
+      <c r="K98">
+        <f>SUM($F$2:F98)/$A98</f>
+        <v>253.05154639175257</v>
+      </c>
+      <c r="L98">
+        <f>SUM($G$2:G98)/$A98</f>
+        <v>199.27835051546393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
+        <v>97</v>
+      </c>
+      <c r="D99">
+        <v>346</v>
+      </c>
+      <c r="E99">
+        <v>345</v>
+      </c>
+      <c r="F99">
+        <v>228</v>
+      </c>
+      <c r="G99">
+        <v>181</v>
+      </c>
+      <c r="I99">
+        <f>SUM($D$2:D99)/$A99</f>
+        <v>299.85714285714283</v>
+      </c>
+      <c r="J99">
+        <f>SUM($E$2:E99)/$A99</f>
+        <v>298.85714285714283</v>
+      </c>
+      <c r="K99">
+        <f>SUM($F$2:F99)/$A99</f>
+        <v>252.79591836734693</v>
+      </c>
+      <c r="L99">
+        <f>SUM($G$2:G99)/$A99</f>
+        <v>199.09183673469389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>98</v>
+      </c>
+      <c r="D100">
+        <v>320</v>
+      </c>
+      <c r="E100">
+        <v>319</v>
+      </c>
+      <c r="F100">
+        <v>246</v>
+      </c>
+      <c r="G100">
+        <v>185</v>
+      </c>
+      <c r="I100">
+        <f>SUM($D$2:D100)/$A100</f>
+        <v>300.06060606060606</v>
+      </c>
+      <c r="J100">
+        <f>SUM($E$2:E100)/$A100</f>
+        <v>299.06060606060606</v>
+      </c>
+      <c r="K100">
+        <f>SUM($F$2:F100)/$A100</f>
+        <v>252.72727272727272</v>
+      </c>
+      <c r="L100">
+        <f>SUM($G$2:G100)/$A100</f>
+        <v>198.94949494949495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
+        <v>99</v>
+      </c>
+      <c r="D101">
+        <v>320</v>
+      </c>
+      <c r="E101">
+        <v>319</v>
+      </c>
+      <c r="F101">
+        <v>228</v>
+      </c>
+      <c r="G101">
+        <v>191</v>
+      </c>
+      <c r="I101">
+        <f>SUM($D$2:D101)/$A101</f>
+        <v>300.26</v>
+      </c>
+      <c r="J101">
+        <f>SUM($E$2:E101)/$A101</f>
+        <v>299.26</v>
+      </c>
+      <c r="K101">
+        <f>SUM($F$2:F101)/$A101</f>
+        <v>252.48</v>
+      </c>
+      <c r="L101">
+        <f>SUM($G$2:G101)/$A101</f>
+        <v>198.87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
+        <v>100</v>
+      </c>
+      <c r="D102">
+        <v>273</v>
+      </c>
+      <c r="E102">
+        <v>272</v>
+      </c>
+      <c r="F102">
+        <v>214</v>
+      </c>
+      <c r="G102">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43755EAD-EDD2-9E4A-920F-7C8ACB8DF2C5}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <f>B1</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f>MAX(B1:B2)</f>
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <f>MAX(B1,B3)</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>MAX(B1,B4)</f>
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>MAX(B1,B5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9">
+        <f>B2</f>
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <f>MAX(B2,B3)</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>MAX(B2,B4)</f>
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <f>MAX(B2,B5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10">
+        <f>B3</f>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f>MAX(B3,B4)</f>
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <f>MAX(B3,B5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <f>B4</f>
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <f>MAX(B4,B5)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12">
+        <f>B5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>SUM(B15:F15)</f>
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G18" si="0">SUM(B16:F16)</f>
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>D16</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>F16</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>F17</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>F18</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>SUM(B19:F19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <f>SUM(B15:B19)</f>
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:F20" si="1">SUM(C15:C19)</f>
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2">
+        <f>B8*B15</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:F29" si="2">C8*C15</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f>F8*F15</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f>SUM(B25:F29)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C9*C16</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="E26" s="2">
+        <f>E9*E16</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E11*E18</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="2">
+        <f>F12*F19</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experimentResults/preliminary_experiment_PLAIN_2.xlsx
+++ b/experimentResults/preliminary_experiment_PLAIN_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniofnottm-my.sharepoint.com/personal/psxsc27_nottingham_ac_uk/Documents/DIA/cw/experimentResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="327" documentId="11_1B0FC304FE797971BC6102DC18518DFFA12CB312" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ADE63F7-47EC-2A4A-85B9-5A522A2879BE}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_1B0FC304FE797971BC6102DC18518DFFA12CB312" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBD7AEEE-5CC9-DA44-801F-D23C888A4E28}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,6 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet3!$I$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet3!$I$2:$I$101</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet3!$J$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet3!$J$2:$J$101</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet3!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet3!$K$2:$K$101</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet3!$L$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet3!$L$2:$L$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet3!$J$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet3!$J$2:$J$101</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet3!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet3!$K$2:$K$101</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet3!$L$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet3!$L$2:$L$101</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet3!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet3!$I$2:$I$101</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet2!$C$16:$F$16,Sheet2!$D$17:$F$17,Sheet2!$E$18:$F$18,Sheet2!$F$19,Sheet2!$B$15:$F$15</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
@@ -82,7 +66,7 @@
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191028" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -9245,7 +9229,7 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13622,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" ref="C25:F29" si="2">C8*C15</f>
+        <f t="shared" ref="C25:F28" si="2">C8*C15</f>
         <v>0</v>
       </c>
       <c r="D25" s="2">
